--- a/biology/Médecine/Orazio_Augenio/Orazio_Augenio.xlsx
+++ b/biology/Médecine/Orazio_Augenio/Orazio_Augenio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orazio Augenio, en latin Augenius, né en 1527 à Potenza Picena et mort en 1603 à Padoue, est un médecin italien de la Renaissance.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Orazio Augenio naquit vers 1527 à Potenza Picena, dans la Marche d’Ancône, où son père, Luigi Augenio, archiatre du pape Clément VII, s’était acquis une très-grande réputation en exerçant la médecine pendant soixante-dix ans. Ses premières études furent toutes consacrées à la philosophie et à la théologie ; il s’adonna ensuite à la médecine avec un grand succès. Reçu docteur à Bologne, selon les uns, à Pise, selon les autres, il professa la logique pendant deux ans à Macerata, après quoi il se rendit à Rome, où il fut nommé à la chaire de médecine théorique. Il quitta cette fonction en 1563, pour aller exercer successivement à Osimo, à Cingoli, en 1570, et à Tolentino, en 1575 ; en 1576 il fut chargé de l’enseignement de la médecine pratique à Turin, où il resta jusqu’en 1592, époque à laquelle, cédant aux offres de la République de Venise, il alla à Padoue succéder à Bernardino Paterno. C’est dans cette ville qu’il mourut, en 1603.
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>On a de lui un grand nombre d’écrits, tous réunis sous le titre d’Opera omnia, Francfort, 1597-1607, et Venise, 1607, 4 vol. in-fol. Ses œuvres les plus importantes sont :
 Quod homini non sit certum nascendi tempus, lib. II, Venise, 1595, in-8° ; Francfort, 1597, in-fol. ; il y combat l’opinion d’Hippocrate, qui prétendait qu’un enfant est moins viable à huit mois qu’à sept.
